--- a/biology/Médecine/Fosse_infratemporale/Fosse_infratemporale.xlsx
+++ b/biology/Médecine/Fosse_infratemporale/Fosse_infratemporale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse infratemporale (ou fosse ptérygo-maxillaire ou fosse sous temporale ou fosse zygomatique) est une cavité du crâne de forme irrégulière, située en dessous et en dedans de l'arcade zygomatique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fosse infratemporale est comprise entre :
 en avant : la face postérieure de l'os maxillaire et celle de son processus zygomatique,
@@ -547,7 +561,9 @@
           <t>Communication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse infratemporale est reliée à d'autres espaces du crâne :
 à la fosse crânienne moyenne par le foramen ovale et le foramen épineux,
@@ -586,15 +602,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musculaire
-La fosse infratemporale contient les muscles ptérygoïdiens latéral et médial .
+          <t>Musculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fosse infratemporale contient les muscles ptérygoïdiens latéral et médial .
 Elle reçoit également les parties inférieures des muscles temporal et masséter.
-Vasculaire
-La fosse infratemporale contient l'artère maxillaire en provenance de l'artère carotide externe. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fosse_infratemporale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_infratemporale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vasculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fosse infratemporale contient l'artère maxillaire en provenance de l'artère carotide externe. 
 L'artère maxillaire y distribue certaines de ses branches : l'artère méningée moyenne, l'artère alvéolaire inférieure, les artères temporales profondes et l'artère buccale.
 Au niveau veineux, la fosse infratemporale contient le plexus ptérygoïdien et la veine rétromandibulaire .
-Nerveux
-La fosse infratemporale contient le nerf mandibulaire (nerf crânien V3) qui pénètre dans la fosse par le foramen ovale de l'os sphénoïde. Il y distribue plusieurs branches :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fosse_infratemporale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_infratemporale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nerveux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fosse infratemporale contient le nerf mandibulaire (nerf crânien V3) qui pénètre dans la fosse par le foramen ovale de l'os sphénoïde. Il y distribue plusieurs branches :
 le nerf alvéolaire inférieur,
 le nerf lingual relié par la corde du tympan au nerf facial,
 le nerf buccal,
